--- a/dbSchool.xlsx
+++ b/dbSchool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1098350515\Documents\quart\cursoJohnson\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E07869E-520D-49C9-9A7D-864807D9A5F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634F1F6C-327B-4A43-A2B4-14C2CE5AE1D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DB5B3291-797C-4B39-AD16-117278FCC81A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{DB5B3291-797C-4B39-AD16-117278FCC81A}"/>
   </bookViews>
   <sheets>
     <sheet name="tbStudent" sheetId="1" r:id="rId1"/>
@@ -495,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A57EE41-45AA-4D66-812E-88E4EDEEE0F0}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,7 +558,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5EEB13-C303-48EC-8A46-17FF7CE48E64}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
